--- a/上海市社保缴费计算器v1.0.xlsx
+++ b/上海市社保缴费计算器v1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wind\Documents\左手代码，右手诗集\左手代码\工作专用\缴费金额计算器2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wind\Documents\GitHub\calculators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B0A906-43F8-42CE-AD41-1F8DD1506B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF239D78-42FD-4124-94D1-4BB10D645667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -781,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="14">
-        <v>6520</v>
+        <v>34188</v>
       </c>
       <c r="D2" s="8">
         <v>16</v>
@@ -829,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="4">
-        <v>34188</v>
+        <v>6520</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>17</v>
@@ -844,35 +844,35 @@
         <v>0.16</v>
       </c>
       <c r="L3" s="10">
-        <f>SUM(L4:L153)</f>
+        <f t="shared" ref="L3:S3" si="0">SUM(L4:L153)</f>
         <v>0</v>
       </c>
       <c r="M3" s="10">
-        <f>SUM(M4:M153)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="10">
-        <f>SUM(N4:N153)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="10">
-        <f>SUM(O4:O153)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="10">
-        <f>SUM(P4:P153)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="10">
-        <f>SUM(Q4:Q153)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="10">
-        <f>SUM(R4:R153)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="10">
-        <f>SUM(S4:S153)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
       <c r="A4" s="1"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="str">
-        <f>IF(A4="","",IF(INT(A4*100)=(A4*100),MAX($C$2,MIN(ROUND(A4,2),$C$3)),"工资数据错误"))</f>
+        <f>IF(A4="","",IF(INT(A4*100)=(A4*100),MAX($C$3,MIN(ROUND(A4,2),$C$2)),"工资数据错误"))</f>
         <v/>
       </c>
       <c r="D4" s="12"/>
@@ -928,39 +928,39 @@
       <c r="A5" s="2"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="str">
-        <f t="shared" ref="C5:C68" si="0">IF(A5="","",IF(INT(A5*100)=(A5*100),MAX($C$2,MIN(ROUND(A5,2),$C$3)),"工资数据错误"))</f>
+        <f t="shared" ref="C5:C68" si="1">IF(A5="","",IF(INT(A5*100)=(A5*100),MAX($C$3,MIN(ROUND(A5,2),$C$2)),"工资数据错误"))</f>
         <v/>
       </c>
       <c r="L5" s="12" t="str">
-        <f t="shared" ref="L5:L68" si="1">IFERROR(ROUND(C5*$D$2/100,2),"")</f>
+        <f t="shared" ref="L5:L68" si="2">IFERROR(ROUND(C5*$D$2/100,2),"")</f>
         <v/>
       </c>
       <c r="M5" s="12" t="str">
-        <f t="shared" ref="M5:M68" si="2">IFERROR(ROUND(C5*$E$2/100,2),"")</f>
+        <f t="shared" ref="M5:M68" si="3">IFERROR(ROUND(C5*$E$2/100,2),"")</f>
         <v/>
       </c>
       <c r="N5" s="12" t="str">
-        <f t="shared" ref="N5:N68" si="3">IFERROR(ROUND(C5*$F$2/100,2),"")</f>
+        <f t="shared" ref="N5:N68" si="4">IFERROR(ROUND(C5*$F$2/100,2),"")</f>
         <v/>
       </c>
       <c r="O5" s="12" t="str">
-        <f t="shared" ref="O5:O68" si="4">IFERROR(ROUND(C5*$G$2/100,2),"")</f>
+        <f t="shared" ref="O5:O68" si="5">IFERROR(ROUND(C5*$G$2/100,2),"")</f>
         <v/>
       </c>
       <c r="P5" s="12" t="str">
-        <f t="shared" ref="P5:P68" si="5">IFERROR(ROUND(C5*$H$2/100,2),"")</f>
+        <f t="shared" ref="P5:P68" si="6">IFERROR(ROUND(C5*$H$2/100,2),"")</f>
         <v/>
       </c>
       <c r="Q5" s="12" t="str">
-        <f t="shared" ref="Q5:Q68" si="6">IFERROR(ROUND(C5*$I$2/100,2),"")</f>
+        <f t="shared" ref="Q5:Q68" si="7">IFERROR(ROUND(C5*$I$2/100,2),"")</f>
         <v/>
       </c>
       <c r="R5" s="12" t="str">
-        <f t="shared" ref="R5:R68" si="7">IFERROR(ROUND(C5*$J$2/100,2),"")</f>
+        <f t="shared" ref="R5:R68" si="8">IFERROR(ROUND(C5*$J$2/100,2),"")</f>
         <v/>
       </c>
       <c r="S5" s="12" t="str">
-        <f t="shared" ref="S5:S68" si="8">IFERROR(ROUND(C5*$K$3/100,2),"")</f>
+        <f t="shared" ref="S5:S68" si="9">IFERROR(ROUND(C5*$K$3/100,2),"")</f>
         <v/>
       </c>
     </row>
@@ -968,39 +968,39 @@
       <c r="A6" s="2"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L6" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M6" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N6" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O6" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P6" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q6" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R6" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S6" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1008,39 +1008,39 @@
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L7" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M7" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N7" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O7" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P7" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q7" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R7" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S7" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1048,39 +1048,39 @@
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L8" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M8" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N8" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O8" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P8" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q8" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R8" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S8" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1088,39 +1088,39 @@
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L9" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M9" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N9" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O9" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P9" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q9" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R9" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S9" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1128,39 +1128,39 @@
       <c r="A10" s="2"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L10" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M10" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N10" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O10" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P10" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q10" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R10" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S10" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1168,39 +1168,39 @@
       <c r="A11" s="2"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L11" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M11" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N11" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O11" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P11" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q11" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R11" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S11" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1208,39 +1208,39 @@
       <c r="A12" s="2"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L12" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M12" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N12" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O12" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P12" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q12" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R12" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S12" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1248,39 +1248,39 @@
       <c r="A13" s="2"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L13" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M13" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N13" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O13" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P13" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q13" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R13" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S13" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1288,39 +1288,39 @@
       <c r="A14" s="2"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L14" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M14" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N14" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O14" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P14" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q14" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R14" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S14" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1328,39 +1328,39 @@
       <c r="A15" s="2"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L15" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M15" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N15" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O15" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P15" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q15" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R15" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S15" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       <c r="A16" s="2"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L16" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M16" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N16" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O16" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P16" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q16" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R16" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S16" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1408,39 +1408,39 @@
       <c r="A17" s="2"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L17" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M17" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N17" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O17" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P17" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q17" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R17" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S17" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1448,39 +1448,39 @@
       <c r="A18" s="2"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L18" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M18" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O18" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P18" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q18" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R18" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S18" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1488,39 +1488,39 @@
       <c r="A19" s="2"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L19" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M19" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N19" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O19" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P19" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q19" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R19" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S19" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1528,39 +1528,39 @@
       <c r="A20" s="2"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L20" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M20" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N20" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O20" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P20" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q20" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R20" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S20" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1568,39 +1568,39 @@
       <c r="A21" s="2"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L21" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M21" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N21" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O21" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P21" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q21" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R21" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S21" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1608,39 +1608,39 @@
       <c r="A22" s="2"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L22" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M22" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N22" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O22" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P22" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q22" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R22" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S22" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1648,39 +1648,39 @@
       <c r="A23" s="2"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L23" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M23" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N23" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O23" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P23" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q23" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R23" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S23" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1688,39 +1688,39 @@
       <c r="A24" s="2"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L24" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M24" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N24" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O24" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P24" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q24" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R24" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S24" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1728,39 +1728,39 @@
       <c r="A25" s="2"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L25" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M25" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N25" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O25" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P25" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q25" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R25" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S25" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1768,39 +1768,39 @@
       <c r="A26" s="2"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L26" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M26" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N26" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O26" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P26" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q26" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R26" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S26" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1808,39 +1808,39 @@
       <c r="A27" s="2"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L27" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M27" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N27" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O27" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P27" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q27" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R27" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S27" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1848,39 +1848,39 @@
       <c r="A28" s="2"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L28" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M28" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N28" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O28" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P28" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q28" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R28" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S28" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1888,39 +1888,39 @@
       <c r="A29" s="2"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L29" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M29" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N29" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O29" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P29" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q29" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R29" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S29" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1928,39 +1928,39 @@
       <c r="A30" s="2"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L30" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M30" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N30" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O30" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P30" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q30" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R30" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S30" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -1968,39 +1968,39 @@
       <c r="A31" s="2"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L31" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M31" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N31" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O31" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P31" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q31" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R31" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S31" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2008,39 +2008,39 @@
       <c r="A32" s="2"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L32" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M32" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N32" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O32" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P32" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q32" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R32" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S32" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2048,39 +2048,39 @@
       <c r="A33" s="2"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L33" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M33" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N33" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O33" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P33" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q33" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R33" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S33" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2088,39 +2088,39 @@
       <c r="A34" s="2"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L34" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M34" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N34" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O34" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P34" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q34" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R34" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S34" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2128,39 +2128,39 @@
       <c r="A35" s="2"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L35" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M35" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N35" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O35" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P35" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q35" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R35" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S35" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2168,39 +2168,39 @@
       <c r="A36" s="2"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L36" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M36" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N36" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O36" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P36" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q36" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R36" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S36" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       <c r="A37" s="2"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L37" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M37" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N37" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O37" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P37" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q37" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R37" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S37" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2248,39 +2248,39 @@
       <c r="A38" s="2"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L38" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M38" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N38" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O38" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P38" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q38" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R38" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S38" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2288,39 +2288,39 @@
       <c r="A39" s="2"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L39" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M39" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N39" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O39" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P39" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q39" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R39" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S39" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2328,39 +2328,39 @@
       <c r="A40" s="2"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L40" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M40" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N40" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O40" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P40" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q40" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R40" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S40" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2368,39 +2368,39 @@
       <c r="A41" s="2"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L41" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M41" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N41" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O41" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P41" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q41" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R41" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S41" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2408,39 +2408,39 @@
       <c r="A42" s="2"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L42" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M42" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N42" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O42" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P42" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q42" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R42" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S42" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2448,39 +2448,39 @@
       <c r="A43" s="2"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L43" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M43" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N43" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O43" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P43" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q43" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R43" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S43" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2488,39 +2488,39 @@
       <c r="A44" s="2"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L44" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M44" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N44" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O44" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P44" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q44" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R44" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S44" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2528,39 +2528,39 @@
       <c r="A45" s="2"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L45" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M45" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N45" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O45" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P45" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q45" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R45" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S45" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2568,39 +2568,39 @@
       <c r="A46" s="2"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L46" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M46" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N46" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O46" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P46" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q46" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R46" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S46" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2608,39 +2608,39 @@
       <c r="A47" s="2"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L47" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M47" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N47" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O47" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P47" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q47" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R47" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S47" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2648,39 +2648,39 @@
       <c r="A48" s="2"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L48" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M48" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N48" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O48" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P48" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q48" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R48" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S48" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2688,39 +2688,39 @@
       <c r="A49" s="2"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L49" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M49" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N49" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O49" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P49" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q49" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R49" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S49" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2728,39 +2728,39 @@
       <c r="A50" s="2"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L50" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M50" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N50" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O50" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P50" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q50" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R50" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S50" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2768,39 +2768,39 @@
       <c r="A51" s="2"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L51" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M51" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N51" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O51" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P51" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q51" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R51" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S51" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2808,39 +2808,39 @@
       <c r="A52" s="2"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L52" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M52" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N52" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O52" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P52" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q52" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R52" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S52" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2848,39 +2848,39 @@
       <c r="A53" s="2"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L53" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M53" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N53" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O53" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P53" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q53" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R53" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S53" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2888,39 +2888,39 @@
       <c r="A54" s="2"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L54" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M54" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N54" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O54" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P54" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q54" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R54" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S54" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2928,39 +2928,39 @@
       <c r="A55" s="2"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L55" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M55" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N55" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O55" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P55" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q55" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R55" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S55" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2968,39 +2968,39 @@
       <c r="A56" s="2"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L56" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M56" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N56" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O56" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P56" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q56" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R56" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S56" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3008,39 +3008,39 @@
       <c r="A57" s="2"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L57" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M57" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N57" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O57" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P57" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q57" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R57" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S57" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3048,39 +3048,39 @@
       <c r="A58" s="2"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L58" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M58" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N58" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O58" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P58" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q58" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R58" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S58" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3088,39 +3088,39 @@
       <c r="A59" s="2"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L59" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M59" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N59" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O59" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P59" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q59" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R59" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S59" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3128,39 +3128,39 @@
       <c r="A60" s="2"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L60" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M60" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N60" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O60" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P60" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q60" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R60" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S60" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3168,39 +3168,39 @@
       <c r="A61" s="2"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L61" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M61" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N61" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O61" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P61" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q61" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R61" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S61" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3208,39 +3208,39 @@
       <c r="A62" s="2"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L62" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M62" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N62" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O62" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P62" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q62" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R62" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S62" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3248,39 +3248,39 @@
       <c r="A63" s="2"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L63" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M63" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N63" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O63" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P63" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q63" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R63" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S63" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3288,39 +3288,39 @@
       <c r="A64" s="2"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L64" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M64" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N64" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O64" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P64" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q64" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R64" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S64" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3328,39 +3328,39 @@
       <c r="A65" s="2"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L65" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M65" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N65" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O65" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P65" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q65" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R65" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S65" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3368,39 +3368,39 @@
       <c r="A66" s="2"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L66" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M66" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N66" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O66" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P66" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q66" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R66" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S66" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3408,39 +3408,39 @@
       <c r="A67" s="2"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L67" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M67" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N67" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O67" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P67" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q67" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R67" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S67" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3448,39 +3448,39 @@
       <c r="A68" s="2"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L68" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M68" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N68" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O68" s="12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P68" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q68" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="R68" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="S68" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3488,39 +3488,39 @@
       <c r="A69" s="2"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11" t="str">
-        <f t="shared" ref="C69:C132" si="9">IF(A69="","",IF(INT(A69*100)=(A69*100),MAX($C$2,MIN(ROUND(A69,2),$C$3)),"工资数据错误"))</f>
+        <f t="shared" ref="C69:C132" si="10">IF(A69="","",IF(INT(A69*100)=(A69*100),MAX($C$3,MIN(ROUND(A69,2),$C$2)),"工资数据错误"))</f>
         <v/>
       </c>
       <c r="L69" s="12" t="str">
-        <f t="shared" ref="L69:L132" si="10">IFERROR(ROUND(C69*$D$2/100,2),"")</f>
+        <f t="shared" ref="L69:L132" si="11">IFERROR(ROUND(C69*$D$2/100,2),"")</f>
         <v/>
       </c>
       <c r="M69" s="12" t="str">
-        <f t="shared" ref="M69:M132" si="11">IFERROR(ROUND(C69*$E$2/100,2),"")</f>
+        <f t="shared" ref="M69:M132" si="12">IFERROR(ROUND(C69*$E$2/100,2),"")</f>
         <v/>
       </c>
       <c r="N69" s="12" t="str">
-        <f t="shared" ref="N69:N132" si="12">IFERROR(ROUND(C69*$F$2/100,2),"")</f>
+        <f t="shared" ref="N69:N132" si="13">IFERROR(ROUND(C69*$F$2/100,2),"")</f>
         <v/>
       </c>
       <c r="O69" s="12" t="str">
-        <f t="shared" ref="O69:O132" si="13">IFERROR(ROUND(C69*$G$2/100,2),"")</f>
+        <f t="shared" ref="O69:O132" si="14">IFERROR(ROUND(C69*$G$2/100,2),"")</f>
         <v/>
       </c>
       <c r="P69" s="12" t="str">
-        <f t="shared" ref="P69:P132" si="14">IFERROR(ROUND(C69*$H$2/100,2),"")</f>
+        <f t="shared" ref="P69:P132" si="15">IFERROR(ROUND(C69*$H$2/100,2),"")</f>
         <v/>
       </c>
       <c r="Q69" s="12" t="str">
-        <f t="shared" ref="Q69:Q132" si="15">IFERROR(ROUND(C69*$I$2/100,2),"")</f>
+        <f t="shared" ref="Q69:Q132" si="16">IFERROR(ROUND(C69*$I$2/100,2),"")</f>
         <v/>
       </c>
       <c r="R69" s="12" t="str">
-        <f t="shared" ref="R69:R132" si="16">IFERROR(ROUND(C69*$J$2/100,2),"")</f>
+        <f t="shared" ref="R69:R132" si="17">IFERROR(ROUND(C69*$J$2/100,2),"")</f>
         <v/>
       </c>
       <c r="S69" s="12" t="str">
-        <f t="shared" ref="S69:S132" si="17">IFERROR(ROUND(C69*$K$3/100,2),"")</f>
+        <f t="shared" ref="S69:S132" si="18">IFERROR(ROUND(C69*$K$3/100,2),"")</f>
         <v/>
       </c>
     </row>
@@ -3528,39 +3528,39 @@
       <c r="A70" s="2"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L70" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M70" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N70" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O70" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P70" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q70" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R70" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S70" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3568,39 +3568,39 @@
       <c r="A71" s="2"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L71" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M71" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N71" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O71" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P71" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q71" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R71" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S71" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3608,39 +3608,39 @@
       <c r="A72" s="2"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L72" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M72" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N72" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O72" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P72" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q72" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R72" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S72" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3648,39 +3648,39 @@
       <c r="A73" s="2"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L73" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M73" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N73" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O73" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P73" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q73" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R73" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S73" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3688,39 +3688,39 @@
       <c r="A74" s="2"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L74" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M74" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N74" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O74" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P74" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q74" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R74" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S74" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3728,39 +3728,39 @@
       <c r="A75" s="2"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L75" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M75" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N75" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O75" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P75" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q75" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R75" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S75" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3768,39 +3768,39 @@
       <c r="A76" s="2"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L76" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M76" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N76" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O76" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P76" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q76" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R76" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S76" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3808,39 +3808,39 @@
       <c r="A77" s="2"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L77" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M77" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N77" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O77" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P77" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q77" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R77" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S77" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3848,39 +3848,39 @@
       <c r="A78" s="2"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L78" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M78" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N78" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O78" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P78" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q78" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R78" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S78" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3888,39 +3888,39 @@
       <c r="A79" s="2"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L79" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M79" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N79" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O79" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P79" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q79" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R79" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S79" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3928,39 +3928,39 @@
       <c r="A80" s="2"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L80" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M80" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N80" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O80" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P80" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q80" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R80" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S80" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -3968,39 +3968,39 @@
       <c r="A81" s="2"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L81" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M81" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N81" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O81" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P81" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q81" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R81" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S81" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4008,39 +4008,39 @@
       <c r="A82" s="2"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L82" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M82" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N82" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O82" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P82" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q82" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R82" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S82" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4048,39 +4048,39 @@
       <c r="A83" s="2"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L83" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M83" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N83" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O83" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P83" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q83" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R83" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S83" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4088,39 +4088,39 @@
       <c r="A84" s="2"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L84" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M84" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N84" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O84" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P84" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q84" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R84" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S84" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4128,39 +4128,39 @@
       <c r="A85" s="2"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L85" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M85" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N85" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O85" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P85" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q85" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R85" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S85" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4168,39 +4168,39 @@
       <c r="A86" s="2"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L86" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M86" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N86" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O86" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P86" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q86" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R86" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S86" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4208,39 +4208,39 @@
       <c r="A87" s="2"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L87" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M87" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N87" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O87" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P87" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q87" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R87" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S87" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4248,39 +4248,39 @@
       <c r="A88" s="2"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L88" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M88" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N88" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O88" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P88" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q88" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R88" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S88" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4288,39 +4288,39 @@
       <c r="A89" s="2"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L89" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M89" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N89" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O89" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P89" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q89" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R89" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S89" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4328,39 +4328,39 @@
       <c r="A90" s="2"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L90" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M90" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N90" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O90" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P90" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q90" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R90" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S90" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4368,39 +4368,39 @@
       <c r="A91" s="2"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L91" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M91" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N91" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O91" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P91" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q91" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R91" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S91" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4408,39 +4408,39 @@
       <c r="A92" s="2"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L92" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M92" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N92" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O92" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P92" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q92" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R92" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S92" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4448,39 +4448,39 @@
       <c r="A93" s="2"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L93" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M93" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N93" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O93" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P93" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q93" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R93" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S93" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4488,39 +4488,39 @@
       <c r="A94" s="2"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L94" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M94" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N94" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O94" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P94" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q94" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R94" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S94" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4528,39 +4528,39 @@
       <c r="A95" s="2"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L95" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M95" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N95" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O95" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P95" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q95" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R95" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S95" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4568,39 +4568,39 @@
       <c r="A96" s="2"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L96" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M96" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N96" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O96" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P96" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q96" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R96" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S96" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4608,39 +4608,39 @@
       <c r="A97" s="2"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L97" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M97" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N97" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O97" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P97" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q97" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R97" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S97" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4648,39 +4648,39 @@
       <c r="A98" s="2"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L98" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M98" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N98" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O98" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P98" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q98" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R98" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S98" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4688,39 +4688,39 @@
       <c r="A99" s="2"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L99" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M99" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N99" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O99" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P99" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q99" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R99" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S99" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4728,39 +4728,39 @@
       <c r="A100" s="2"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L100" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M100" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N100" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O100" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P100" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q100" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R100" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S100" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4768,39 +4768,39 @@
       <c r="A101" s="2"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L101" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M101" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N101" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O101" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P101" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q101" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R101" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S101" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4808,39 +4808,39 @@
       <c r="A102" s="2"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L102" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M102" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N102" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O102" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P102" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q102" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R102" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S102" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4848,39 +4848,39 @@
       <c r="A103" s="2"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L103" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M103" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N103" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O103" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P103" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q103" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R103" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S103" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4888,39 +4888,39 @@
       <c r="A104" s="2"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L104" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M104" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N104" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O104" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P104" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q104" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R104" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S104" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4928,39 +4928,39 @@
       <c r="A105" s="2"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L105" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M105" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N105" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O105" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P105" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q105" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R105" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S105" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -4968,39 +4968,39 @@
       <c r="A106" s="2"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L106" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M106" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N106" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O106" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P106" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q106" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R106" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S106" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5008,39 +5008,39 @@
       <c r="A107" s="2"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L107" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M107" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N107" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O107" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P107" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q107" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R107" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S107" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5048,39 +5048,39 @@
       <c r="A108" s="2"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L108" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M108" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N108" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O108" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P108" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q108" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R108" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S108" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5088,39 +5088,39 @@
       <c r="A109" s="2"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L109" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M109" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N109" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O109" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P109" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q109" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R109" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S109" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5128,39 +5128,39 @@
       <c r="A110" s="2"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L110" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M110" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N110" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O110" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P110" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q110" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R110" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S110" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5168,39 +5168,39 @@
       <c r="A111" s="2"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L111" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M111" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N111" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O111" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P111" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q111" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R111" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S111" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5208,39 +5208,39 @@
       <c r="A112" s="2"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L112" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M112" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N112" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O112" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P112" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q112" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R112" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S112" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5248,39 +5248,39 @@
       <c r="A113" s="2"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L113" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M113" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N113" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O113" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P113" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q113" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R113" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S113" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5288,39 +5288,39 @@
       <c r="A114" s="2"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L114" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M114" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N114" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O114" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P114" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q114" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R114" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S114" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5328,39 +5328,39 @@
       <c r="A115" s="2"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L115" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M115" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N115" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O115" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P115" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q115" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R115" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S115" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5368,39 +5368,39 @@
       <c r="A116" s="2"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L116" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M116" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N116" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O116" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P116" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q116" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R116" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S116" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5408,39 +5408,39 @@
       <c r="A117" s="2"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L117" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M117" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N117" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O117" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P117" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q117" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R117" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S117" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5448,39 +5448,39 @@
       <c r="A118" s="2"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L118" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M118" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N118" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O118" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P118" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q118" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R118" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S118" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5488,39 +5488,39 @@
       <c r="A119" s="2"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L119" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M119" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N119" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O119" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P119" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q119" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R119" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S119" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5528,39 +5528,39 @@
       <c r="A120" s="2"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L120" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M120" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N120" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O120" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P120" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q120" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R120" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S120" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5568,39 +5568,39 @@
       <c r="A121" s="2"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L121" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M121" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N121" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O121" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P121" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q121" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R121" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S121" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5608,39 +5608,39 @@
       <c r="A122" s="2"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L122" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M122" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N122" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O122" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P122" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q122" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R122" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S122" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5648,39 +5648,39 @@
       <c r="A123" s="2"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L123" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M123" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N123" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O123" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P123" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q123" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R123" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S123" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5688,39 +5688,39 @@
       <c r="A124" s="2"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L124" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M124" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N124" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O124" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P124" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q124" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R124" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S124" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5728,39 +5728,39 @@
       <c r="A125" s="2"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L125" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M125" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N125" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O125" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P125" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q125" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R125" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S125" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5768,39 +5768,39 @@
       <c r="A126" s="2"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L126" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M126" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N126" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O126" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P126" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q126" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R126" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S126" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5808,39 +5808,39 @@
       <c r="A127" s="2"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L127" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M127" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N127" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O127" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P127" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q127" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R127" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S127" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5848,39 +5848,39 @@
       <c r="A128" s="2"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L128" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M128" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N128" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O128" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P128" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q128" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R128" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S128" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5888,39 +5888,39 @@
       <c r="A129" s="2"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L129" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M129" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N129" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O129" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P129" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q129" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R129" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S129" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5928,39 +5928,39 @@
       <c r="A130" s="2"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L130" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M130" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N130" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O130" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P130" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q130" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R130" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S130" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -5968,39 +5968,39 @@
       <c r="A131" s="2"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L131" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M131" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N131" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O131" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P131" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q131" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R131" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S131" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -6008,39 +6008,39 @@
       <c r="A132" s="2"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L132" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M132" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N132" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O132" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P132" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q132" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R132" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S132" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -6048,39 +6048,39 @@
       <c r="A133" s="2"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11" t="str">
-        <f t="shared" ref="C133:C153" si="18">IF(A133="","",IF(INT(A133*100)=(A133*100),MAX($C$2,MIN(ROUND(A133,2),$C$3)),"工资数据错误"))</f>
+        <f t="shared" ref="C133:C153" si="19">IF(A133="","",IF(INT(A133*100)=(A133*100),MAX($C$3,MIN(ROUND(A133,2),$C$2)),"工资数据错误"))</f>
         <v/>
       </c>
       <c r="L133" s="12" t="str">
-        <f t="shared" ref="L133:L153" si="19">IFERROR(ROUND(C133*$D$2/100,2),"")</f>
+        <f t="shared" ref="L133:L153" si="20">IFERROR(ROUND(C133*$D$2/100,2),"")</f>
         <v/>
       </c>
       <c r="M133" s="12" t="str">
-        <f t="shared" ref="M133:M153" si="20">IFERROR(ROUND(C133*$E$2/100,2),"")</f>
+        <f t="shared" ref="M133:M153" si="21">IFERROR(ROUND(C133*$E$2/100,2),"")</f>
         <v/>
       </c>
       <c r="N133" s="12" t="str">
-        <f t="shared" ref="N133:N153" si="21">IFERROR(ROUND(C133*$F$2/100,2),"")</f>
+        <f t="shared" ref="N133:N153" si="22">IFERROR(ROUND(C133*$F$2/100,2),"")</f>
         <v/>
       </c>
       <c r="O133" s="12" t="str">
-        <f t="shared" ref="O133:O153" si="22">IFERROR(ROUND(C133*$G$2/100,2),"")</f>
+        <f t="shared" ref="O133:O153" si="23">IFERROR(ROUND(C133*$G$2/100,2),"")</f>
         <v/>
       </c>
       <c r="P133" s="12" t="str">
-        <f t="shared" ref="P133:P153" si="23">IFERROR(ROUND(C133*$H$2/100,2),"")</f>
+        <f t="shared" ref="P133:P153" si="24">IFERROR(ROUND(C133*$H$2/100,2),"")</f>
         <v/>
       </c>
       <c r="Q133" s="12" t="str">
-        <f t="shared" ref="Q133:Q153" si="24">IFERROR(ROUND(C133*$I$2/100,2),"")</f>
+        <f t="shared" ref="Q133:Q153" si="25">IFERROR(ROUND(C133*$I$2/100,2),"")</f>
         <v/>
       </c>
       <c r="R133" s="12" t="str">
-        <f t="shared" ref="R133:R153" si="25">IFERROR(ROUND(C133*$J$2/100,2),"")</f>
+        <f t="shared" ref="R133:R153" si="26">IFERROR(ROUND(C133*$J$2/100,2),"")</f>
         <v/>
       </c>
       <c r="S133" s="12" t="str">
-        <f t="shared" ref="S133:S153" si="26">IFERROR(ROUND(C133*$K$3/100,2),"")</f>
+        <f t="shared" ref="S133:S153" si="27">IFERROR(ROUND(C133*$K$3/100,2),"")</f>
         <v/>
       </c>
     </row>
@@ -6088,39 +6088,39 @@
       <c r="A134" s="2"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L134" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M134" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N134" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O134" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P134" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q134" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R134" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S134" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6128,39 +6128,39 @@
       <c r="A135" s="2"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L135" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M135" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N135" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O135" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P135" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q135" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R135" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S135" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6168,39 +6168,39 @@
       <c r="A136" s="2"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L136" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M136" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N136" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O136" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P136" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q136" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R136" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S136" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6208,39 +6208,39 @@
       <c r="A137" s="2"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L137" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M137" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N137" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O137" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P137" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q137" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R137" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S137" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6248,39 +6248,39 @@
       <c r="A138" s="2"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L138" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M138" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N138" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O138" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P138" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q138" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R138" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S138" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6288,39 +6288,39 @@
       <c r="A139" s="2"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L139" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M139" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N139" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O139" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P139" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q139" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R139" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S139" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6328,39 +6328,39 @@
       <c r="A140" s="2"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L140" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M140" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N140" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O140" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P140" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q140" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R140" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S140" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6368,39 +6368,39 @@
       <c r="A141" s="2"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L141" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M141" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N141" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O141" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P141" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q141" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R141" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S141" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6408,39 +6408,39 @@
       <c r="A142" s="2"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L142" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M142" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N142" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O142" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P142" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q142" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R142" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S142" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6448,39 +6448,39 @@
       <c r="A143" s="2"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L143" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M143" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N143" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O143" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P143" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q143" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R143" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S143" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6488,39 +6488,39 @@
       <c r="A144" s="2"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L144" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M144" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N144" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O144" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P144" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q144" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R144" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S144" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6528,39 +6528,39 @@
       <c r="A145" s="2"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L145" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M145" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N145" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O145" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P145" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q145" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R145" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S145" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6568,39 +6568,39 @@
       <c r="A146" s="2"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L146" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M146" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N146" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O146" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P146" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q146" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R146" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S146" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6608,39 +6608,39 @@
       <c r="A147" s="2"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L147" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M147" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N147" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O147" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P147" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q147" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R147" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S147" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6648,39 +6648,39 @@
       <c r="A148" s="2"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L148" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M148" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N148" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O148" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P148" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q148" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R148" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S148" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6688,39 +6688,39 @@
       <c r="A149" s="2"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L149" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M149" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N149" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O149" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P149" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q149" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R149" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S149" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6728,39 +6728,39 @@
       <c r="A150" s="2"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L150" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M150" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N150" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O150" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P150" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q150" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R150" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S150" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6768,39 +6768,39 @@
       <c r="A151" s="2"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L151" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M151" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N151" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O151" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P151" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q151" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R151" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S151" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6808,39 +6808,39 @@
       <c r="A152" s="2"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L152" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M152" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N152" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O152" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P152" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q152" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R152" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S152" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -6848,44 +6848,44 @@
       <c r="A153" s="2"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L153" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M153" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N153" s="12" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O153" s="12" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P153" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q153" s="12" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R153" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S153" s="12" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9GtJ4x36Za3NOTDZvJHeCBpn2MGMNyX40LonuM7BYLk+OuDE3c2N6KfYip/OwUhh5jhAKmDNhsVnXairWCKIag==" saltValue="xT1sxAUjBbmQNhFZWTJExA==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0"/>
   <mergeCells count="3">
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="D3:J3"/>
